--- a/Income/RF_inc.xlsx
+++ b/Income/RF_inc.xlsx
@@ -1727,16 +1727,16 @@
         <v>1.0506</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.0459</v>
+        <v>1.0169</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.9943</v>
+        <v>0.9674</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.94</v>
+        <v>0.9154</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.8954</v>
+        <v>0.8732</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.8772</v>
@@ -1981,16 +1981,16 @@
         <v>0.2196</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.183</v>
+        <v>0.1779</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.1585</v>
+        <v>0.1542</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.2728</v>
+        <v>0.2656</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3032</v>
+        <v>0.2957</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2998</v>
@@ -2108,16 +2108,16 @@
         <v>0.1656</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.1323</v>
+        <v>0.1286</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.1094</v>
+        <v>0.1065</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.204</v>
+        <v>0.1987</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2296</v>
+        <v>0.2239</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2301</v>
@@ -2235,16 +2235,16 @@
         <v>0.4846</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.5267</v>
+        <v>0.5002</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.5254</v>
+        <v>0.4996</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.4116</v>
+        <v>0.3897</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.3743</v>
+        <v>0.3544</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.435</v>
@@ -3589,16 +3589,16 @@
         <v>0.5169</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.5588</v>
+        <v>0.5314</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.5658</v>
+        <v>0.5389</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.4446</v>
+        <v>0.4219</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.4051</v>
+        <v>0.3845</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.4654</v>
